--- a/Luban/Datas/Cards.xlsx
+++ b/Luban/Datas/Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\Project_Card\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C63E1B3-6848-4CDF-81C3-12F9C92E43C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5862E9E-B15F-49C8-8AB5-50E9FECEDAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2568" yWindow="3012" windowWidth="20748" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,31 +99,111 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E_CardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通攻击2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是普通攻击2</t>
+    <t>cardFace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_CardFace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成2点伤害</t>
+  </si>
+  <si>
+    <t>造成5点伤害</t>
+  </si>
+  <si>
+    <t>造成8点伤害</t>
+  </si>
+  <si>
+    <t>施加3层流血</t>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加6层流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施加9层流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当有诅咒加入牌库后，立即弃置1张，视为本回合行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+  </si>
+  <si>
+    <t>弃置至多1张手牌</t>
+  </si>
+  <si>
+    <t>弃置至多2张手牌</t>
+  </si>
+  <si>
+    <t>弃置至多3张手牌</t>
+  </si>
+  <si>
+    <t>Scissors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,16 +226,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F3FD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -163,12 +274,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,22 +594,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,13 +628,19 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -504,18 +657,24 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -532,50 +691,286 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>10001</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>10002</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>10003</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>10004</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
+      <c r="E8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>10005</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="4">
+        <v>7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>10006</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
+        <v>10007</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>10002</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
+    </row>
+    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
+        <v>10008</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
+        <v>10009</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>19</v>
+    </row>
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>10010</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Datas/Cards.xlsx
+++ b/Luban/Datas/Cards.xlsx
@@ -1,223 +1,620 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\Project_Card\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5862E9E-B15F-49C8-8AB5-50E9FECEDAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049D30E-EBA0-4523-BAB0-DDBBB27D484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="3012" windowWidth="20748" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgName</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>cardFace</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
   <si>
     <t>##type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_CardType</t>
+  </si>
+  <si>
+    <t>E_CardFace</t>
   </si>
   <si>
     <t>##group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卡的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图片的名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>卡的描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡类型</t>
+  </si>
+  <si>
+    <t>卡面</t>
   </si>
   <si>
     <t>点数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>长剑</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>造成2点伤害</t>
   </si>
   <si>
     <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_CardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardFace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E_CardFace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LongSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害</t>
+  </si>
+  <si>
+    <t>造成8点伤害</t>
   </si>
   <si>
     <t>小刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成2点伤害</t>
-  </si>
-  <si>
-    <t>造成5点伤害</t>
-  </si>
-  <si>
-    <t>造成8点伤害</t>
+  </si>
+  <si>
+    <t>Knife</t>
   </si>
   <si>
     <t>施加3层流血</t>
   </si>
   <si>
     <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施加6层流血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>施加9层流血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>面具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当有诅咒加入牌库后，立即弃置1张，视为本回合行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每当有诅咒加入牌库后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立即弃置1张</t>
+    </r>
   </si>
   <si>
     <t>Ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剪刀</t>
   </si>
   <si>
-    <t>弃置至多1张手牌</t>
-  </si>
-  <si>
-    <t>弃置至多2张手牌</t>
-  </si>
-  <si>
-    <t>弃置至多3张手牌</t>
-  </si>
-  <si>
     <t>Scissors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即弃置至多1张手牌</t>
+  </si>
+  <si>
+    <t>立即弃置至多2张手牌</t>
+  </si>
+  <si>
+    <t>立即弃置至多3张手牌</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看牌库的3张牌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以任意顺序置于牌库顶</t>
+    </r>
+  </si>
+  <si>
+    <t>长矛</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>无效1次下回合敌方的行动</t>
+  </si>
+  <si>
+    <t>狼牙棒</t>
+  </si>
+  <si>
+    <t>WolfTooth</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施加5层创伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>施加7层创伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>消耗</t>
+    </r>
+  </si>
+  <si>
+    <t>卷轴</t>
+  </si>
+  <si>
+    <t>Scroll</t>
+  </si>
+  <si>
+    <t>立即抽取1张牌</t>
+  </si>
+  <si>
+    <t>立即抽取2张牌</t>
+  </si>
+  <si>
+    <t>酒杯</t>
+  </si>
+  <si>
+    <t>Goblet</t>
+  </si>
+  <si>
+    <t>下回合获得3层护盾</t>
+  </si>
+  <si>
+    <t>下回合获得5层护盾</t>
+  </si>
+  <si>
+    <t>下回合获得7层护盾</t>
+  </si>
+  <si>
+    <t>毒药</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>施加3层中毒</t>
+  </si>
+  <si>
+    <t>施加4层中毒</t>
+  </si>
+  <si>
+    <t>施加5层中毒</t>
+  </si>
+  <si>
+    <t>钢笔</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法带入对局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合成后卡牌点数-1</t>
+    </r>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>铆钉</t>
+  </si>
+  <si>
+    <t>Rivet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成1点伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复3次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成3点伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复3次</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>造成5点伤害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="汉仪书宋二KW"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复3次</t>
+    </r>
+  </si>
+  <si>
+    <t>空酒杯</t>
+  </si>
+  <si>
+    <t>BeerMug</t>
+  </si>
+  <si>
+    <t>无法打出，无法弃置，没有效果，回合结束消耗</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>打出该牌立即结束本回合，消耗</t>
+  </si>
+  <si>
+    <t>小丑</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>无法打出，该牌右侧的手牌无法被打出，回合结束消耗</t>
+  </si>
+  <si>
+    <t>恐吓</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
+    <t>抽取后展示该牌，并选择一张手牌弃置，消耗</t>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curse</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即获得1层“穿透”</t>
+  </si>
+  <si>
+    <t>立即获得2层“穿透”</t>
+  </si>
+  <si>
+    <t>立即获得3层“穿透”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="汉仪书宋二KW"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="汉仪书宋二KW"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -228,24 +625,32 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei Light"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Microsoft YaHei Light"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -261,7 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFAD82D4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,26 +698,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,7 +825,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -409,7 +860,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -584,144 +1035,148 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" style="5" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11">
+        <v>10001</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
-        <v>10001</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="G5" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
@@ -730,25 +1185,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4">
+    <row r="6" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11">
         <v>10002</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H6" s="4">
         <v>3</v>
@@ -757,25 +1212,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4">
+    <row r="7" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="11">
         <v>10003</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="4">
         <v>4</v>
@@ -784,25 +1239,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4">
+    <row r="8" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11">
         <v>10004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>35</v>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="4">
         <v>6</v>
@@ -811,25 +1266,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4">
+    <row r="9" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="11">
         <v>10005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>35</v>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
@@ -838,25 +1293,25 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4">
+    <row r="10" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="11">
         <v>10006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>35</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="H10" s="4">
         <v>8</v>
@@ -865,25 +1320,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4">
+    <row r="11" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="11">
         <v>10007</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>41</v>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
@@ -892,89 +1347,733 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4">
+    <row r="12" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="11">
         <v>10008</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="7">
+      <c r="F12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="13">
         <v>4</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4">
+    <row r="13" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="11">
         <v>10009</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="13">
         <v>5</v>
       </c>
       <c r="I13" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4">
+    <row r="14" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="11">
         <v>10010</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="C14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="13">
         <v>6</v>
       </c>
       <c r="I14" s="4">
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B15" s="11">
+        <v>10011</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B16" s="11">
+        <v>10012</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B17" s="11">
+        <v>10013</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="4">
+        <v>6</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B18" s="11">
+        <v>10014</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="4">
+        <v>7</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B19" s="11">
+        <v>10015</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B20" s="11">
+        <v>10016</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="4">
+        <v>9</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B21" s="11">
+        <v>10017</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="4">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B22" s="11">
+        <v>10018</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="4">
+        <v>6</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B23" s="11">
+        <v>10019</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="4">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B24" s="11">
+        <v>10020</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="4">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B25" s="11">
+        <v>10021</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="4">
+        <v>9</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B26" s="11">
+        <v>10022</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10</v>
+      </c>
+      <c r="I26" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B27" s="11">
+        <v>10023</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B28" s="11">
+        <v>10024</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="4">
+        <v>6</v>
+      </c>
+      <c r="I28" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B29" s="11">
+        <v>10025</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="4">
+        <v>7</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B30" s="11">
+        <v>10026</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B31" s="11">
+        <v>10027</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="4">
+        <v>4</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B32" s="11">
+        <v>10028</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B33" s="11">
+        <v>10029</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="4">
+        <v>6</v>
+      </c>
+      <c r="I33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B34" s="11">
+        <v>10030</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="4">
+        <v>5</v>
+      </c>
+      <c r="I34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B35" s="11">
+        <v>10031</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="4">
+        <v>10</v>
+      </c>
+      <c r="I35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B36" s="11">
+        <v>10032</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3</v>
+      </c>
+      <c r="I36" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B37" s="11">
+        <v>10033</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="4">
+        <v>3</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:9" ht="19.95" customHeight="1">
+      <c r="B39" s="11"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Luban/Datas/Cards.xlsx
+++ b/Luban/Datas/Cards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\Project_Card\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D049D30E-EBA0-4523-BAB0-DDBBB27D484D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13408091-DD5E-4883-B429-F95369D3D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.95" customHeight="1"/>
@@ -2040,6 +2040,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -2053,15 +2060,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2070,7 +2070,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
